--- a/images.xlsx
+++ b/images.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="250">
   <si>
     <t>Термин</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Персональное толкование или способ использования</t>
+  </si>
+  <si>
+    <t>Исторический аспект развития</t>
   </si>
   <si>
     <t>Anycast-адрес</t>
@@ -68,6 +71,9 @@
 </t>
   </si>
   <si>
+    <t>Появился в 1993 (RFC 1546) для маршрутизации к ближайшему узлу. В IPv6 стал стандартом (RFC 2460), упростив балансировку нагрузки в CDN и DNS.</t>
+  </si>
+  <si>
     <t>Authentication Header</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
   </si>
   <si>
     <t>AH — это как пломба на важном документе: если её повредить, сразу видно, что кто-то вскрывал конверт. Например, в корпоративной сети AH может проверять, что пакеты от филиала не подделаны злоумышленником. Однако из-за сложности обработки (например, NAT-совместимости) его часто заменяют ESP или комбинированными методами. Тем не менее, в строгих security-политиках AH остаётся ценным инструментом.</t>
+  </si>
+  <si>
+    <t>Создан в 1995 (RFC 1826) для IPsec. Обеспечивает аутентификацию пакетов, но без шифрования. Обновлён в RFC 4302 (2005), уступив место ESP.</t>
   </si>
   <si>
     <t>Basic IPv6 Header</t>
@@ -132,6 +141,9 @@
     <t>меня Basic IPv6 Header — это «визитная карточка» пакета, указывающая, куда и как его доставить. Например, если пакет идёт от моего компьютера к YouTube, заголовок содержит адреса IPv6 (от меня → к серверу), тип данных (например, TCP) и TTL (чтобы пакет не ходил вечно). Упрощённый формат помогает маршрутизаторам быстрее его обрабатывать.</t>
   </si>
   <si>
+    <t>Разработан в 1998 (RFC 2460) как упрощённая замена IPv4: фиксированный размер 40 байт, удалены checksum и фрагментация.</t>
+  </si>
+  <si>
     <t>DAD (Duplicate Address Detection)</t>
   </si>
   <si>
@@ -164,6 +176,9 @@
   </si>
   <si>
     <t>Я представляю DAD как "спросить в комнате: 'Это место свободно?'" перед тем, как сесть. Это очень важный механизм безопасности при автоконфигурации. Он помогает избежать странных сбоев, когда два устройства случайно используют один адрес. Особенно нужен в сетях без централизованного контроля.</t>
+  </si>
+  <si>
+    <t>Введён в 1998 (RFC 2462) для IPv6. Автоматически проверяет уникальность адресов через ICMPv6, заменив ARP из IPv4.</t>
   </si>
   <si>
     <t>EUI-64</t>
@@ -200,6 +215,9 @@
     <t>EUI-64 для меня — это как отпечаток пальца устройства, встроенный в его адрес. Удобен, когда нужно быстро сгенерировать уникальный IPv6-адрес без централизованной настройки. Иногда, правда, это может быть минусом — ведь MAC-адрес устройства становится видимым. Поэтому я аккуратно подхожу к его использованию в конфиденциальных сетях.</t>
   </si>
   <si>
+    <t>Формат IEEE для 64-битных адресов. В IPv6 использовался для генерации идентификаторов интерфейсов, но позже заменён Privacy Extensions (RFC 4941).</t>
+  </si>
+  <si>
     <t>Gratuitous ARP</t>
   </si>
   <si>
@@ -210,6 +228,9 @@
   </si>
   <si>
     <t>Gratuitous ARP — это как громкое объявление: "Внимание! Теперь IP 192.168.1.10 — это я, MAC 00:1A:2B:3C:4D:5E!"</t>
+  </si>
+  <si>
+    <t>Механизм IPv4 для обновления ARP-кэшей. В IPv6 аналогичная функция реализована через Neighbor Advertisement в NDP.</t>
   </si>
   <si>
     <t>GUA (Global Unicast Address)</t>
@@ -250,6 +271,9 @@
     <t>Я воспринимаю GUA как "паспорт" устройства в интернете — он даёт ему возможность выходить за пределы локальной сети. С ним можно получить доступ к глобальным сервисам, API и облакам. Особенно важно понимать структуру GUA при работе с корпоративными сетями, где безопасность и управление подсетями имеют значение. Его использование требует продуманной настройки фаерволов и маршрутов.</t>
   </si>
   <si>
+    <t>Стандартизирован в 2003 (RFC 3587). Решил проблему нехватки IPv4-адресов, предоставив огромное адресное пространство (/48 на организацию).</t>
+  </si>
+  <si>
     <t>Hop-by-Hop Options Header</t>
   </si>
   <si>
@@ -278,6 +302,9 @@
     <t>Hop-by-Hop Options — это как пометка «Вскрыть немедленно» на письме: например, если в пакете стоит Router Alert, маршрутизаторы понимают, что нужно проверить его содержимое (например, для QoS или Multicast-управления). Однако из-за накладных расходов его используют редко — только когда действительно нужно что-то «критичное» для всей сети.</t>
   </si>
   <si>
+    <t>Унаследован от IPv4 options (RFC 791), но вынесен в отдельный заголовок в IPv6 (RFC 2460). Используется редко, в основном для Router Alert.</t>
+  </si>
+  <si>
     <t>ICMPv6</t>
   </si>
   <si>
@@ -298,6 +325,9 @@
   </si>
   <si>
     <t>ICMPv6 — это как «система нервных сигналов» IPv6: всё, от проверок до обнаружения соседей, идёт через него. Я регулярно использую его при диагностике сетей — особенно когда нужно понять, доступен ли хост или работает ли маршрутизатор. Он настолько важен, что его блокировка фаерволом часто ломает работу сети. Его надо не только понимать, но и уважать.</t>
+  </si>
+  <si>
+    <t>Создан в 1998 (RFC 2463) как замена ICMP, IGMP и ARP. Стал основой для NDP и SLAAC, добавив функции диагностики и автоматической конфигурации.</t>
   </si>
   <si>
     <t>LLA (Link-Local Address)</t>
@@ -334,6 +364,9 @@
     <t>LLA для меня — это как сосед, с которым ты можешь поговорить, не выходя из квартиры. Эти адреса незаменимы при инициализации устройств и установлении базовых соединений. Я часто вижу их при диагностике сетей, когда важно понять, что хотя бы базовая связь между узлами есть. Это первая "ниточка" в сетевом взаимодействии.</t>
   </si>
   <si>
+    <t>LLA были введены с появлением IPv6 в 1998 году и используются для связи устройств в одной локальной сети без необходимости в глобальном адресе. Они по-прежнему актуальны и широко применяются в современных сетях.</t>
+  </si>
+  <si>
     <t>Loopback-адрес IPv6 (::1)</t>
   </si>
   <si>
@@ -366,6 +399,9 @@
   </si>
   <si>
     <t>::1 — это как посмотреться в зеркало: устройство проверяет, работает ли оно само. Я использую его, чтобы протестировать серверы или службы на локальной машине без риска что-то поломать в сети. Это первый адрес, с которого стоит начинать диагностику, если «ничего не работает». Без него не обойтись ни при разработке, ни при администрировании.</t>
+  </si>
+  <si>
+    <t>Loopback-адрес был определен в спецификации IPv6 в 1998 году и используется для тестирования сетевых приложений на локальном устройстве. Он продолжает использоваться и в современных сетях.</t>
   </si>
   <si>
     <t>Multicast-адрес</t>
@@ -401,6 +437,9 @@
     <t>Я воспринимаю multicast как групповое сообщение — вроде рассылки в мессенджере, где информация должна дойти до всех участников группы. Это экономит сетевые ресурсы и ускоряет доставку. Я сталкивался с этим при настройке IPTV и сетевого мониторинга. В некоторых проектах multicast был ключевым решением для уменьшения нагрузки на каналы связи.</t>
   </si>
   <si>
+    <t>Мультикаст-адреса были введены в 1980-х годах и используются для передачи данных группе устройств одновременно. Они остаются важной частью сетевых технологий, особенно в потоковом видео и VoIP.</t>
+  </si>
+  <si>
     <t>NDP (Neighbor Discovery Protocol)</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
   </si>
   <si>
     <t>Я представляю NDP как “организатора” внутри IPv6-сети — он знакомит всех между собой, говорит, где чей адрес, и следит, чтобы не было путаницы. Он особенно полезен, когда нужно автоматизировать адресацию и сделать сеть «самонастраивающейся». Я сталкивался с ним при отладке сетей, когда важно понять, почему одно устройство «не видит» другое. Это невидимая, но крайне важная часть сетевого взаимодействия.</t>
+  </si>
+  <si>
+    <t>Протокол обнаружения соседей был представлен в 1995 году как часть спецификации IPv6 и используется для определения других устройств в локальной сети. Он активно используется в современных сетях IPv6.</t>
   </si>
   <si>
     <t>Next Header</t>
@@ -437,6 +479,9 @@
     <t>Next Header — как оглавление в книге: оно говорит маршрутизатору или конечному устройству, как обрабатывать пакет дальше. Например, если Next Header = 6 (TCP), устройство передаст данные стек TCP; если там значение 0 (Hop-by-Hop Options), оно сначала обработает этот расширенный заголовок. Это делает IPv6 более модульным и эффективным.</t>
   </si>
   <si>
+    <t>Поле Next Header было введено в IPv6 в 1998 году и указывает на тип следующего заголовка в пакете. Оно продолжает использоваться в современных сетевых протоколах.</t>
+  </si>
+  <si>
     <t>RFC 791</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
   </si>
   <si>
     <t>IPv4 — это фундаментальный протокол интернета, который организует передачу данных в виде пакетов. Например, когда вы открываете сайт, ваш браузер отправляет HTTP-запрос, который упаковывается в IP-пакет с адресами вашего ПК (например, 192.168.1.10) и сервера (например, 142.250.185.206 — Google). Поля заголовка IPv4 помогают маршрутизаторам доставить пакет правильно.</t>
+  </si>
+  <si>
+    <t>Основополагающий стандарт IPv4 (1981), заложивший основы интернет-адресации, но из-за ограничений 32-битного пространства уступивший место IPv6.</t>
   </si>
   <si>
     <t>SLAAC (Stateless Address Autoconfiguration)</t>
@@ -494,6 +542,9 @@
   <si>
     <t xml:space="preserve">SLAAC — это как автозаполнение анкеты: устройство само "догадается", какой адрес ему нужен. Это экономит время на ручную настройку и уменьшает зависимость от серверов. Я использую SLAAC в тестовых стендах или временных сетях, где нужно быстро всё настроить. Главное — понимать, что без DHCP можно потерять контроль над сопоставлением адресов.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SLAAC был представлен в 1998 году как часть спецификации IPv6 и позволяет устройствам автоматически настраивать свои адреса. Этот метод по-прежнему используется в современных сетях IPv6.</t>
   </si>
   <si>
     <t>ULA (Unique Local Address)</t>
@@ -534,6 +585,9 @@
     <t>Для меня ULA — это как закрытая сеть в организации, где всё "своё" и никуда не выходит. Я использую такие адреса, когда настраиваю домашние или корпоративные системы, не нуждающиеся в доступе к внешнему интернету. Они удобны, когда нужно обеспечить адресацию и маршрутизацию внутри, но с изоляцией от внешнего мира. Это своего рода "внутренний интернет".</t>
   </si>
   <si>
+    <t>ULA был введен в 2005 году как часть спецификации IPv6 и предназначен для использования в частных сетях. Он продолжает использоваться для локальной адресации в IPv6.</t>
+  </si>
+  <si>
     <t>Unicast-адрес</t>
   </si>
   <si>
@@ -566,6 +620,9 @@
     <t>Unicast я воспринимаю как точечное общение между двумя конкретными участниками. Это как отправить письмо по почте: у него один отправитель и один получатель. В моей практике это основной тип связи между клиентом и сервером, особенно в системах, где важна индивидуальность сессии. Он используется почти во всех стандартных соединениях, включая веб и почту.</t>
   </si>
   <si>
+    <t>Уникальные адреса существуют с момента появления IP-протоколов в 1980-х годах и используются для адресации одного конкретного устройства. Они остаются основным типом адресации в сетях.</t>
+  </si>
+  <si>
     <t>Агрегированный маршрут</t>
   </si>
   <si>
@@ -577,6 +634,9 @@
   <si>
     <t xml:space="preserve">Агрегированный маршрут — как почтовый индекс: Отдельные адреса (ул. Ленина, д. 1, ул. Ленина, д. 2) — это конкретные подсети, Индекс 123456 — это агрегированный маршрут для всего района, Почтальону (маршрутизатору) не нужно помнить каждый дом — достаточно знать индекс.
 </t>
+  </si>
+  <si>
+    <t>Агрегированные маршруты начали использоваться в 1990-х годах для оптимизации маршрутизации в больших сетях. Они по-прежнему актуальны и применяются в современных маршрутизаторах.</t>
   </si>
   <si>
     <t>Заголовки IPv4</t>
@@ -607,6 +667,9 @@
     Protocol (8 бит): Определяет следующий протокол (например, 6 для TCP, 17 для UDP).
     Source/Destination IP (по 32 бита): Адреса отправителя и получателя.
 Пример: Когда вы открываете сайт, ваш браузер отправляет HTTP-запрос, упакованный в TCP-сегмент, который помещается в IP-пакет с таким заголовком. Маршрутизаторы смотрят на Destination IP и TTL, чтобы доставить пакет, а Control Sum проверяет, не был ли он повреждён в пути.</t>
+  </si>
+  <si>
+    <t>Заголовки IPv4 были определены в 1981 году и используются для передачи данных в сетях IPv4. Хотя они все еще используются, их замена на заголовки IPv6 происходит постепенно.</t>
   </si>
   <si>
     <t>Идентификатор подсети</t>
@@ -643,6 +706,9 @@
     <t>Я вижу идентификатор подсети как “домовой номер” внутри улицы: все знают улицу (префикс), а номер дома говорит, куда конкретно идти. При проектировании сетей я использую этот элемент для структурирования и контроля. Он особенно удобен, когда нужно управлять доступом или сегментировать сеть по отделам или функциям.</t>
   </si>
   <si>
+    <t>Идентификатор подсети был введен с появлением IP-адресации в 1980-х годах и используется для разделения сетей на более мелкие сегменты. Он продолжает использоваться в современных сетевых архитектурах.</t>
+  </si>
+  <si>
     <t>Иерархическая структура адресного пространства</t>
   </si>
   <si>
@@ -676,6 +742,9 @@
   </si>
   <si>
     <t>Иерархическая структура адресного пространства — это модель представления данных, в которой каждый элемент имеет уникальный путь, определяемый его положением в дереве зависимостей. Альтернативно её можно рассматривать как систему вложенных контейнеров, где доступ к содержимому возможен только через последовательное прохождение уровней. Например, в DNS домены (например, subdomain.example.com) строятся иерархически, начиная с корневого домена (.com).</t>
+  </si>
+  <si>
+    <t>Иерархическая структура адресного пространства была разработана в 1990-х годах для упрощения маршрутизации в интернете. Она остается основой для организации IP-адресов и маршрутизации.</t>
   </si>
   <si>
     <t>Интернет вещей</t>
@@ -714,6 +783,9 @@
     <t>IoT — это экосистема «умных» устройств, которые взаимодействуют между собой для автоматизации процессов. Например, умный дом, где датчики температуры регулируют обогрев, а камеры автоматически отправляют уведомления о подозрительной активности. В промышленности IoT используется для мониторинга оборудования, предотвращая поломки за счет анализа данных с датчиков.</t>
   </si>
   <si>
+    <t>Концепция Интернета вещей начала развиваться в 1999 году и подразумевает подключение различных устройств к интернету. Она активно развивается и используется в современных технологиях.</t>
+  </si>
+  <si>
     <t>Интерфейс R3</t>
   </si>
   <si>
@@ -724,6 +796,9 @@
   </si>
   <si>
     <t>В сетевом моделировании (Cisco Packet Tracer, GNS3, EVE-NG) R3 — это условное обозначение третьего маршрутизатора в топологии. Его интерфейсы могут выполнять разные роли: LAN-интерфейсы, WAN-интерфейсы, Loopback-интерфейсы</t>
+  </si>
+  <si>
+    <t>Интерфейс R3, как часть сетевых технологий, был разработан в 1990-х годах для управления маршрутизацией. Он продолжает использоваться в современных сетевых устройствах.</t>
   </si>
   <si>
     <t>Интерфейсы машрутизатора</t>
@@ -738,6 +813,9 @@
     <t>Интерфейсы маршрутизатора — это его "руки", которыми он соединяется с остальной сетью. В зависимости от роли маршрутизатора, интерфейсы могут выполнять разные функции: WAN-интерфейс, LAN-интерфейс, Loopback-интерфейс, SVI - интерфейс</t>
   </si>
   <si>
+    <t>Интерфейсы маршрутизатора существуют с момента появления маршрутизаторов в 1980-х годах и обеспечивают связь между различными сетями. Они продолжают использоваться в современных сетевых устройствах для управления трафиком.</t>
+  </si>
+  <si>
     <t>Клиент DHCPv6</t>
   </si>
   <si>
@@ -748,6 +826,9 @@
   </si>
   <si>
     <t>В реальных сценариях клиент DHCPv6 — это, например, компьютер или IoT-устройство, которое при подключении к IPv6-сети автоматически "просит" у DHCPv6-сервера рабочий адрес и настройки. Это удобно в крупных сетях, где ручное назначение адресов непрактично. В отличие от SLAAC (Stateless Address Autoconfiguration), DHCPv6 позволяет централизованно управлять адресами и дополнительными параметрами (DNS, NTP и т. д.).</t>
+  </si>
+  <si>
+    <t>Клиент DHCPv6 был разработан в 2003 году для автоматической конфигурации IPv6-адресов и других параметров сети. Он активно используется в современных сетях для упрощения управления адресацией.</t>
   </si>
   <si>
     <t>Конфигурация IPv6</t>
@@ -762,6 +843,9 @@
     <t>Аналогия: Если IPv4-конфигурация — это получение готового номера в гостинице (DHCP), то IPv6 — это выбор: либо самому придумать номер на основе этажа (SLAAC), либо попросить администратора (DHCPv6), либо написать его от руки (ручная настройка).</t>
   </si>
   <si>
+    <t>Конфигурация IPv6 была стандартизирована в 1998 году и включает в себя различные методы, такие как SLAAC и DHCPv6. Она продолжает развиваться и используется для настройки сетей нового поколения.</t>
+  </si>
+  <si>
     <t>Маршрутизатор</t>
   </si>
   <si>
@@ -772,6 +856,9 @@
   </si>
   <si>
     <t>Маршрутизатор — это "мозг" сети, который не просто пересылает данные (как коммутатор), а выбирает путь для каждого пакета.</t>
+  </si>
+  <si>
+    <t>Первые маршрутизаторы появились в 1960-х годах, и с тех пор они стали основным элементом сетевой инфраструктуры. Современные маршрутизаторы поддерживают как IPv4, так и IPv6.</t>
   </si>
   <si>
     <t>Основной и расширенный заголовок IPv6</t>
@@ -802,6 +889,9 @@
 Главные преимущества — скорость (маршрутизаторы обрабатывают только нужные заголовки) и безопасность (встроенная поддержка IPsec).</t>
   </si>
   <si>
+    <t>Основной и расширенный заголовки IPv6 были введены в 1998 году и обеспечивают гибкость в обработке пакетов. Они продолжают использоваться в современных сетевых протоколах.</t>
+  </si>
+  <si>
     <t>Поле: Данные расширенного заголовка</t>
   </si>
   <si>
@@ -828,6 +918,9 @@
   </si>
   <si>
     <t>Это поле можно рассматривать как «полезную нагрузку» расширенного заголовка — ту часть, где хранятся параметры и настройки, необходимые для выполнения функций, ради которых этот заголовок был добавлен. В отличие от фиксированных полей (как «Длина заголовка»), содержание этого поля интерпретируется согласно спецификации конкретного типа заголовка.</t>
+  </si>
+  <si>
+    <t>Поле данных расширенного заголовка было определено в спецификации IPv6 в 1998 году. Оно актуально и в современных сетевых приложениях.</t>
   </si>
   <si>
     <t>Поле: Длина расширенного заголовка(8 бит)</t>
@@ -868,6 +961,9 @@
 Если пакет содержит заголовок маршрутизации с Длиной = 4, его размер равен (4 + 1) × 8 = 40 байт. Узел, получивший такой пакет, «перемотает» эти 40 байт, чтобы перейти к следующему заголовку или данным.</t>
   </si>
   <si>
+    <t>Поле длины расширенного заголовка было введено в спецификации IPv6 в 1998 году и продолжает использоваться в современных сетях.</t>
+  </si>
+  <si>
     <t>Получение адреса через SLAAC</t>
   </si>
   <si>
@@ -878,6 +974,9 @@
   </si>
   <si>
     <t>SLAAC — как получение почтового адреса при переезде: RA-сообщение — это объявление города и улицы (префикс сети), EUI-64 — номер дома и квартиры (генерируется из MAC-адреса), В отличие от DHCPv6 (где адрес выдаёт "почтамт"), здесь устройство "само выбирает" номер квартиры.</t>
+  </si>
+  <si>
+    <t>Метод получения адреса через SLAAC был представлен в 1998 году и активно используется в современных сетях IPv6.</t>
   </si>
   <si>
     <t>Преимущества IPv6: Практически бесконечное адресное пространство</t>
@@ -914,6 +1013,9 @@
   </si>
   <si>
     <t>Благодаря огромному количеству адресов IPv6: Каждое устройство может иметь публичный IP (холодильник, датчик умного дома, телефон), что упрощает прямое подключение без NAT. Упрощается развертывание IoT – миллиарды датчиков в умных городах или промышленности могут работать без ограничений. Исчезает проблема "перекрытия" приватных сетей – в IPv4 две компании могли использовать одинаковые подсети (например, 192.168.1.0/24), что вызывало конфликты при VPN-подключениях. В IPv6 такие ситуации исключены.</t>
+  </si>
+  <si>
+    <t>Концепция практически бесконечного адресного пространства была введена с появлением IPv6 в 1998 году и остается актуальной, не имея замены.</t>
   </si>
   <si>
     <t>Префикс глобальной маршрутизации</t>
@@ -956,6 +1058,9 @@
 </t>
   </si>
   <si>
+    <t>Префиксы глобальной маршрутизации были определены в 1998 году и продолжают использоваться в современных сетях IPv6.</t>
+  </si>
+  <si>
     <t>Префикс FE80::/10</t>
   </si>
   <si>
@@ -995,6 +1100,9 @@
     <t>Для меня FE80::/10 — это как коротковолновая рация, работающая только на один дом или этаж. Всё, что передаётся по этим адресам, остаётся внутри одного узла или сегмента. Я их вижу в любой IPv6-сети, даже если нет глобального адреса — они всегда там. Особенно полезны, когда сеть только поднимается или нужно наладить базовую связь.</t>
   </si>
   <si>
+    <t>Префикс FE80::/10 был введен в 1998 году для Link-Local адресов и по-прежнему используется в современных сетях.</t>
+  </si>
+  <si>
     <t>Префикс FF00::/8</t>
   </si>
   <si>
@@ -1027,6 +1135,9 @@
   </si>
   <si>
     <t>FF00::/8 для меня — это как групповая рассылка: говоришь один раз — слышат все, кому нужно. Я встречал multicast в IPv6 при работе с сервисами, где важно оповестить множество клиентов одновременно. Это удобно для обновлений или синхронизации. Главное — не путать с broadcast, которого в IPv6, кстати, вообще нет.</t>
+  </si>
+  <si>
+    <t>Префикс FF00::/8 был определен в 1998 году для мультикаст-адресов и продолжает использоваться в современных сетях.</t>
   </si>
   <si>
     <t>Произвольный IPv6-адрес (Anycast)</t>
@@ -1071,6 +1182,9 @@
     <t>Я воспринимаю Anycast как «умную маршрутизацию», когда система сама выбирает, к какому из доступных серверов обратиться, исходя из оптимальности пути. Это очень удобно для глобальных сервисов, где важна скорость отклика, например, при обращении к DNS-серверам. Используя Anycast, можно обеспечить более стабильную и быструю работу приложений. Особенно важно это в больших распределённых системах.</t>
   </si>
   <si>
+    <t>Anycast-адреса были введены в 1998 году и продолжают использоваться в современных сетевых приложениях.</t>
+  </si>
+  <si>
     <t>Разрешение адреса</t>
   </si>
   <si>
@@ -1082,6 +1196,9 @@
   <si>
     <t xml:space="preserve">Разрешение адреса — это как поиск человека в толпе по имени: ARP (IPv4) — устройство кричит: "У кого IP 192.168.1.1? Скажите ваш MAC!", NDP (IPv6) — вместо ARP используется многофункциональный NDP (включает аналог ARP + SLAAC + DAD).
 </t>
+  </si>
+  <si>
+    <t>Процесс разрешения адреса, включая DNS, стал важным с развитием интернета в 1980-х годах и продолжает использоваться в современных сетях.</t>
   </si>
   <si>
     <t>Расширенные функции QoS</t>
@@ -1103,6 +1220,9 @@
   </si>
   <si>
     <t>Расширенные функции QoS — это методы, позволяющие сетям динамически распределять ресурсы в соответствии с требованиями различных сервисов, таких как VoIP, потоковое видео или облачные приложения. Они могут включать DiffServ, IntServ, MPLS-TE и другие протоколы для обеспечения минимальных задержек, потерь пакетов и джиттера. Источник: Tanenbaum, A. S. "Computer Networks."</t>
+  </si>
+  <si>
+    <t>Расширенные функции качества обслуживания (QoS) начали развиваться в 1990-х годах и остаются актуальными в современных сетях.</t>
   </si>
   <si>
     <t>Сокращения IPv6-адресов:</t>
@@ -1152,6 +1272,9 @@
     <t>Cокращение IPv6 — как удаление лишних пробелов в тексте: например, адрес fe80:0000:0000:0000:a299:9bff:fe12:3456 превращается в компактный fe80::a299:9bff:fe12:3456. Однако важно помнить, что :: можно использовать только один раз в адресе, иначе возникнет неоднозначность. Это особенно полезно в конфигах, где короткая запись экономит место и снижает риск ошибок.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Сокращения IPv6-адресов были введены в 1998 году и продолжают использоваться для упрощения записи адресов.</t>
+  </si>
+  <si>
     <t>Статические адреса</t>
   </si>
   <si>
@@ -1162,6 +1285,9 @@
   </si>
   <si>
     <t>Статические адреса — это как "прописка" устройства в сети. Они используются там, где важно, чтобы сетевое имя устройства не менялось со временем.</t>
+  </si>
+  <si>
+    <t>Статические адреса существуют с момента появления IP-адресации в 1980-х годах и по-прежнему используются в сетевых конфигурациях.</t>
   </si>
   <si>
     <t>Статический маршрут</t>
@@ -1176,6 +1302,9 @@
     <t>Статический маршрут — как поезд, идущий по фиксированному расписанию: если путь перекрыт, он не найдёт объезд сам, пока диспетчер (админ) не перенаправит его. В отличие от "умного такси" (динамической маршрутизации), которое само выбирает дорогу с учётом пробок.</t>
   </si>
   <si>
+    <t>Статические маршруты были разработаны в 1980-х годах и продолжают использоваться в современных сетях.</t>
+  </si>
+  <si>
     <t>Статический GUA IPv6</t>
   </si>
   <si>
@@ -1188,6 +1317,9 @@
     <t>Статический GUA IPv6 — это как "прописка" устройства в IPv6-сети. В отличие от временных адресов (SLAAC, DHCPv6), он не меняется, что полезно для: Серверов, Сетевого оборудования, Удалённого управления.</t>
   </si>
   <si>
+    <t>Статические глобально уникальные адреса (GUA) были введены с появлением IPv6 в 1998 году и остаются актуальными.</t>
+  </si>
+  <si>
     <t>Фиксированный заголовок пакета</t>
   </si>
   <si>
@@ -1198,6 +1330,9 @@
   </si>
   <si>
     <t>Фиксированный заголовок — это "шапка" пакета, которую анализируют маршрутизаторы и коммутаторы, чтобы понять, куда и как передавать данные.</t>
+  </si>
+  <si>
+    <t>Фиксированный заголовок пакета был определен в 1981 году в спецификации IPv4 и продолжает использоваться в IPv6.</t>
   </si>
   <si>
     <t>Формат IPv4</t>
@@ -1228,6 +1363,9 @@
     TTL предотвращает "блуждание" пакета (например, при петле маршрутизации).
     Флаги и смещение нужны, если пакет делится на части (например, при MTU Ethernet = 1500 байт, а размер пакета — 3000 байт).
     Контрольная сумма пересчитывается на каждом маршрутизаторе (из-за изменения TTL), что создает нагрузку.</t>
+  </si>
+  <si>
+    <t>Формат IPv4 был установлен в 1981 году и все еще используется, хотя постепенно заменяется IPv6.</t>
   </si>
   <si>
     <t>Формат IPv6</t>
@@ -1275,6 +1413,9 @@
     Метка потока позволяет маршрутизаторам обрабатывать трафик класса "видео" иначе, чем "электронная почта".</t>
   </si>
   <si>
+    <t>Формат IPv6 был представлен в 1998 году и активно используется в современных сетях.</t>
+  </si>
+  <si>
     <t>Формат Пакета</t>
   </si>
   <si>
@@ -1286,6 +1427,9 @@
   <si>
     <t xml:space="preserve">Формат пакета — это "язык", на котором устройства обмениваются информацией. Например: Ethernet-кадр содержит MAC-адреса и тип инкапсулированного протокола (IPv4/IPv6), IP-пакет включает IP-адреса, TTL (срок жизни) и номер протокола (TCP/UDP/ICMP), TCP-сегмент добавляет порты, номера последовательностей и флаги (SYN/ACK).
 </t>
+  </si>
+  <si>
+    <t>Формат пакета был определен в спецификациях IP в 1980-х годах и продолжает использоваться в IPv4 и IPv6.</t>
   </si>
   <si>
     <t>Целостность связь End-to-End (E2E)</t>
@@ -1328,6 +1472,9 @@
     <t>Сеть — это "труба", которая просто доставляет пакеты, а всю "интеллектуальную" работу делают клиент и сервер.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Концепция целостности связи End-to-End была разработана в 1980-х годах и продолжает использоваться в современных сетевых протоколах.</t>
+  </si>
+  <si>
     <t>Широковещательные штормы в результате зависимости от ARP</t>
   </si>
   <si>
@@ -1350,6 +1497,9 @@
   </si>
   <si>
     <t>Широковещательные штормы из-за ARP возникают, когда устройство пытается найти MAC-адрес, но ответ не доходит или теряется, заставляя его отправлять запросы снова и снова. Например, если в локальной сети два коммутатора соединены петлей (без STP), ARP-запросы будут циркулировать бесконечно, перегружая сеть. Решение — включить STP (Spanning Tree Protocol) и ограничить широковещательные домены с помощью VLAN.</t>
+  </si>
+  <si>
+    <t>Проблема широковещательных штормов, связанная с ARP, была актуальна с 1980-х годов и остается проблемой в сетях, использующих IPv4.</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1496,6 +1646,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1724,6 +1877,7 @@
     <col customWidth="1" min="3" max="3" width="38.38"/>
     <col customWidth="1" min="4" max="4" width="45.75"/>
     <col customWidth="1" min="5" max="5" width="53.5"/>
+    <col customWidth="1" min="6" max="6" width="34.13"/>
     <col customWidth="1" min="8" max="8" width="13.38"/>
     <col customWidth="1" min="9" max="9" width="52.38"/>
   </cols>
@@ -1744,7 +1898,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1768,22 +1924,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>image("https://goo.su/fDmzXz")</f>
         <v/>
       </c>
       <c r="E2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1807,22 +1965,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>image("https://cdn.educba.com/academy/wp-content/uploads/2019/12/authentication-header1.png")</f>
         <v/>
       </c>
       <c r="E3" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1846,22 +2006,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="11" t="str">
-        <f>image("https://cdn.networkacademy.io/sites/default/files/2020-10/comparing%20ipv4-and-ipv6-headers.png")</f>
+        <f>image("https://media.geeksforgeeks.org/wp-content/uploads/ipv6-header.png")</f>
         <v/>
       </c>
       <c r="E4" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1885,22 +2047,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>image("https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTZ0lZDyoikEJk26MB_P0f66ySpjqzCFahyBw&amp;s")</f>
         <v/>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -1924,22 +2088,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f>image("https://i.sstatic.net/PNQOA.png")</f>
+        <f>image("https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTgsECymBbvBzZ8t-RJz1Xpw4QgPHHJ0baYxQ&amp;s")</f>
         <v/>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1963,22 +2129,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="str">
         <f>image("https://avatars.mds.yandex.net/i?id=279f158be35aa5522f42e458656e3394_l-5209680-images-thumbs&amp;n=13")</f>
         <v/>
       </c>
       <c r="E7" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2002,22 +2170,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f>image("https://gclnk.com/r3cTy3es")</f>
+        <f>image("https://slideplayer.com/slide/13782547/85/images/36/Configuring+a+Global+Unicast+Address.jpg")</f>
         <v/>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2041,22 +2211,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D9" s="9" t="str">
         <f>image("https://learningnetwork.cisco.com/sfc/servlet.shepherd/version/renditionDownload?rendition=THUMB720BY480&amp;versionId=0683i000001rol2&amp;operationContext=CHATTER&amp;contentId=05T3i00000ACOCt&amp;page=0")</f>
         <v/>
       </c>
       <c r="E9" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2080,22 +2252,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="str">
         <f>image("https://avatars.mds.yandex.net/i?id=e1a87015b46310acb57cec1468476599ad2a563f-4768443-images-thumbs&amp;n=13")</f>
         <v/>
       </c>
       <c r="E10" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2119,22 +2293,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>image("https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTU4C4KiibnfQwgg_rj01Yz9flD4QwWcH4rgg&amp;s")</f>
         <v/>
       </c>
       <c r="E11" s="13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2158,22 +2334,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="str">
         <f>image("https://www.cspsprotocol.com/wp-content/uploads/2021/09/Loopback-addresses-for-IPv4-and-IPv6.png")</f>
         <v/>
       </c>
       <c r="E12" s="13" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2197,22 +2375,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5" t="str">
         <f>image("https://goo.su/lHQx8")</f>
         <v/>
       </c>
       <c r="E13" s="13" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2236,22 +2416,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>image("https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRFPyySVI879YvsAkt2r8cAWmB12L8wy5Oorg&amp;s")</f>
         <v/>
       </c>
       <c r="E14" s="13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2275,22 +2457,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D15" s="9" t="str">
         <f>image("https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTk851c_J2heHQVAHUcJLBpV0KSm8egW7uSmA&amp;s")</f>
         <v/>
       </c>
       <c r="E15" s="11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2314,22 +2498,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D16" s="17" t="str">
         <f>image("https://timeweb.com/media/default/0001/02/33e41e2a6e8031f9fa5ae91e66214264f4662be7.png")</f>
         <v/>
       </c>
       <c r="E16" s="11" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2353,22 +2539,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D17" s="5" t="str">
         <f>image("https://ipcisco.com/wp-content/uploads/2019/02/SLAAC-with-DHCP-IPv6-Stateless-Auto-Configuration.jpg")</f>
         <v/>
       </c>
       <c r="E17" s="13" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2392,22 +2580,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D18" s="5" t="str">
         <f>image("https://www.openwall.com/presentations/IPv6/img14.png")</f>
         <v/>
       </c>
       <c r="E18" s="13" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2431,22 +2621,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>image("https://goo.su/1bBWOI")</f>
         <v/>
       </c>
       <c r="E19" s="13" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2470,22 +2662,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>image("https://intuit.ru/EDI/14_10_17_3/1507933349-30551/tutorial/725/objects/7/files/07_03.jpg")</f>
         <v/>
       </c>
       <c r="E20" s="13" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2509,22 +2703,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D21" s="9" t="str">
         <f>image("https://storage.yandexcloud.net/wr4img/385017_596_img_169.png")</f>
         <v/>
       </c>
       <c r="E21" s="11" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2548,22 +2744,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>image("https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQA1wbk6kOowwQGt7WJffvqYH1Z8eeuk10Akw&amp;s")</f>
         <v/>
       </c>
       <c r="E22" s="11" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2587,19 +2785,21 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="11" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2623,22 +2823,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D24" s="18" t="str">
         <f>image("https://auroraevernet.ru/upload/medialibrary/d7c/v0y899m59srv9fbivg1o2xamyu70xr64.jpg")</f>
         <v/>
       </c>
       <c r="E24" s="11" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2662,22 +2864,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D25" s="5" t="str">
-        <f>image("https://dean.ru/upload/medialibrary/6aa/6aa6d3369eee52f6dc216f6ad14a33f8.png")</f>
+        <f>image("https://projects.rubezh.ru/upload/medialibrary/dfc/8skdzj0ywrwjzu8qgo3wn8ai909npawi/2.png")</f>
         <v/>
       </c>
       <c r="E25" s="13" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2701,22 +2905,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D26" s="5" t="str">
         <f>image("https://artemsannikov.ru/wp-content/uploads/2019/04/funkcii-marshrutizatora5.png")</f>
         <v/>
       </c>
       <c r="E26" s="13" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2740,22 +2946,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D27" s="5" t="str">
         <f>image("https://www.cellstream.com/wordpress/wp-content/uploads/2013/09/DHCPv6_3.jpg")</f>
         <v/>
       </c>
       <c r="E27" s="13" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2779,22 +2987,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D28" s="5" t="str">
         <f>image("https://i.ytimg.com/vi/t3x8u-BrU6M/maxresdefault.jpg")</f>
         <v/>
       </c>
       <c r="E28" s="13" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2818,22 +3028,24 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D29" s="5" t="str">
         <f>image("https://avatars.mds.yandex.net/get-mpic/4220209/img_id8676454471304001570.jpeg/orig")</f>
         <v/>
       </c>
       <c r="E29" s="14" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2857,22 +3069,24 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D30" s="9" t="str">
         <f>image("https://studfile.net/html/2706/635/html_uVvQ1vAiAl.KIIp/img-qLeOlt.png")</f>
         <v/>
       </c>
       <c r="E30" s="11" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2896,19 +3110,21 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="11" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2932,19 +3148,21 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="11" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2968,22 +3186,24 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D33" s="5" t="str">
-        <f>image("https://slideplayer.com/slide/6640065/23/images/27/SLAAC%3A+EUI-64+Option+1+2+RA+3+MAC%3A+D2-8C-E0-4C.jpg")</f>
+        <f>image("https://www.internetsociety.org/wp-content/uploads/2019/02/scenario.gif")</f>
         <v/>
       </c>
       <c r="E33" s="13" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -3007,22 +3227,24 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="D34" s="17" t="str">
         <f>image("https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQb0e-evJLc7z9Yp5uOi96rUV2GTh4-UaagTQ&amp;s")</f>
         <v/>
       </c>
       <c r="E34" s="11" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -3046,22 +3268,21 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
-      <c r="D35" s="5" t="str">
-        <f>image("https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQmLsbWgkHqAMlpJjJmKGT_gaQV_9iQ7RCzmA&amp;s")</f>
-        <v/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="13" t="s">
+        <v>174</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>140</v>
+      <c r="F35" s="6" t="s">
+        <v>175</v>
       </c>
-      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -3085,22 +3306,24 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D36" s="5" t="str">
         <f>image("https://rayka-co.com/wp-content/uploads/2024/08/15.-IPv6-link-local-address-format.jpg")</f>
         <v/>
       </c>
       <c r="E36" s="13" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3124,22 +3347,24 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D37" s="5" t="str">
         <f>image("https://ctopmbi4.wordpress.com/wp-content/uploads/2015/05/ipv6-next-lan.png")</f>
         <v/>
       </c>
       <c r="E37" s="13" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3163,22 +3388,24 @@
     </row>
     <row r="38" ht="91.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D38" s="5" t="str">
         <f>image("https://belajarcomputernetwork.com/wp-content/uploads/2015/07/071015_0434_ipv6anycast2.png?w=584)")</f>
         <v/>
       </c>
       <c r="E38" s="13" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="19" t="s">
+        <v>190</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3202,22 +3429,24 @@
     </row>
     <row r="39" ht="107.25" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="D39" s="5" t="str">
         <f>image("https://fuzeservers.ru/wp-content/uploads/a/d/0/ad0adc64bba31a21168d42fe28664e2a.jpeg")</f>
         <v/>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>156</v>
+      <c r="E39" s="20" t="s">
+        <v>194</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3241,19 +3470,21 @@
     </row>
     <row r="40" ht="125.25" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="10" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="19" t="s">
+        <v>199</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3277,22 +3508,24 @@
     </row>
     <row r="41" ht="125.25" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="D41" s="9" t="str">
         <f>image("https://artemsannikov.ru/wp-content/uploads/2018/06/setevye-ipv6-adresa-pravilo-2-propusk-vsex-nulevyx-segmentov2.jpg")</f>
         <v/>
       </c>
       <c r="E41" s="10" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -3316,22 +3549,24 @@
     </row>
     <row r="42" ht="108.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="D42" s="5" t="str">
         <f>image("https://www.bestfree.ru/uslugi/web/NoIP_1.png")</f>
         <v/>
       </c>
       <c r="E42" s="14" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="19" t="s">
+        <v>209</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -3355,22 +3590,21 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
-      <c r="D43" s="5" t="str">
-        <f>image("https://all-sfp.ru/wp-content/uploads/0/6/3/063dda98ac3018c2007ec18a370fc022.jpeg")</f>
-        <v/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6" t="s">
+        <v>213</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>171</v>
+      <c r="F43" s="6" t="s">
+        <v>214</v>
       </c>
-      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3394,22 +3628,21 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
-      <c r="D44" s="5" t="str">
-        <f>image("https://avatars.mds.yandex.net/i?id=615033e54fc7c86aa80624178db7154e27845367-5354001-images-thumbs&amp;n=13")</f>
-        <v/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="13" t="s">
+        <v>218</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>175</v>
+      <c r="F44" s="19" t="s">
+        <v>219</v>
       </c>
-      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -3433,22 +3666,24 @@
     </row>
     <row r="45" ht="88.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="D45" s="5" t="str">
         <f>image("https://mypresentation.ru/documents_6/692140c073b8ff9e99667a9cfd8afb60/img34.jpg")</f>
         <v/>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>179</v>
+      <c r="E45" s="20" t="s">
+        <v>223</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3472,20 +3707,23 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="D46" s="9" t="str">
         <f>image("https://hw-images.hostwinds.com/strapi-images/ipv4_address_format_01_17ec1ede2f.webp")</f>
         <v/>
       </c>
       <c r="E46" s="11" t="s">
-        <v>183</v>
+        <v>228</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -3506,22 +3744,24 @@
     </row>
     <row r="47" ht="85.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D47" s="9" t="str">
         <f>image("https://www.rapidseedbox.com/wp-content/uploads/what_is_ipv6_2.png")</f>
         <v/>
       </c>
       <c r="E47" s="11" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -3545,20 +3785,23 @@
     </row>
     <row r="48" ht="105.0" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="D48" s="5" t="str">
         <f>image("https://cf.ppt-online.org/files/slide/g/ghZoElNzuYscLy5HCJ6dS7IWkatnXp8A2Ub0VP/slide-1.jpg")</f>
         <v/>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>191</v>
+      <c r="E48" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -3579,22 +3822,24 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D49" s="17" t="str">
         <f>image("https://habrastorage.org/getpro/habr/upload_files/05a/e2f/dda/05ae2fdda83fdbbaa2f3e105ebd2aa03.png")</f>
         <v/>
       </c>
       <c r="E49" s="10" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3618,19 +3863,21 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="10" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -3676,7 +3923,7 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3704,7 +3951,7 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -3732,7 +3979,7 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -3760,7 +4007,7 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3788,7 +4035,7 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="20"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -3816,7 +4063,7 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="20"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3844,7 +4091,7 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -3872,7 +4119,7 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
